--- a/datastatic/datasets/online/SDG10_LGBTI_Rights_ILGA_Index_ILGA_2016.xlsx
+++ b/datastatic/datasets/online/SDG10_LGBTI_Rights_ILGA_Index_ILGA_2016.xlsx
@@ -485,7 +485,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG10_LGBTI_Rights_ILGA_Index_ILGA_2016.xlsx
+++ b/datastatic/datasets/online/SDG10_LGBTI_Rights_ILGA_Index_ILGA_2016.xlsx
@@ -485,7 +485,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -28664,10 +28664,6 @@
       <c r="Z996" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B19"/>
-    <hyperlink r:id="rId2" ref="B32"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>